--- a/test_program/test_data/calculate_bug_reopen_rating_case.xlsx
+++ b/test_program/test_data/calculate_bug_reopen_rating_case.xlsx
@@ -47,7 +47,7 @@
     <t>expect_result</t>
   </si>
   <si>
-    <t>CBRR_S_0001</t>
+    <t>BUG_REOPEN_S_0001</t>
   </si>
   <si>
     <t>BUG重启数0，期望20分</t>
@@ -62,7 +62,7 @@
     <t>{"X": 0}</t>
   </si>
   <si>
-    <t>CBRR_S_0002</t>
+    <t>BUG_REOPEN_S_0002</t>
   </si>
   <si>
     <t>BUG重启数1，期望15分</t>
@@ -71,7 +71,7 @@
     <t>{"X": 1}</t>
   </si>
   <si>
-    <t>CBRR_S_0003</t>
+    <t>BUG_REOPEN_S_0003</t>
   </si>
   <si>
     <t>BUG重启数2，期望10分</t>
@@ -80,7 +80,7 @@
     <t>{"X": 2}</t>
   </si>
   <si>
-    <t>CBRR_S_0004</t>
+    <t>BUG_REOPEN_S_0004</t>
   </si>
   <si>
     <t>BUG重启数3，期望5分</t>
@@ -89,7 +89,7 @@
     <t>{"X": 3}</t>
   </si>
   <si>
-    <t>CBRR_S_0005</t>
+    <t>BUG_REOPEN_S_0005</t>
   </si>
   <si>
     <t>BUG重启数4，期望1分</t>
@@ -98,7 +98,7 @@
     <t>{"X": 4}</t>
   </si>
   <si>
-    <t>CBRR_S_0006</t>
+    <t>BUG_REOPEN_S_0006</t>
   </si>
   <si>
     <t>BUG重启数5，期望1分</t>
@@ -107,7 +107,7 @@
     <t>{"X": 5}</t>
   </si>
   <si>
-    <t>CBRR_S_0007</t>
+    <t>BUG_REOPEN_S_0007</t>
   </si>
   <si>
     <t>BUG重启数9999，期望1分</t>
@@ -119,7 +119,7 @@
     <t>{"X": 9999}</t>
   </si>
   <si>
-    <t>CBRR_S_0008</t>
+    <t>BUG_REOPEN_S_0008</t>
   </si>
   <si>
     <t>BUG重启数很长，期望1分</t>
@@ -128,7 +128,7 @@
     <t>{"X": 999999999999999999999999999999999999999999999999999999999999999999999999999999999999}</t>
   </si>
   <si>
-    <t>CBRR_E_0001</t>
+    <t>BUG_REOPEN_E_0001</t>
   </si>
   <si>
     <t>BUG重启数-1</t>
@@ -143,7 +143,7 @@
     <t>ValueError("错误：缺陷重新打开次数不应为负数")</t>
   </si>
   <si>
-    <t>CBRR_E_0002</t>
+    <t>BUG_REOPEN_E_0002</t>
   </si>
   <si>
     <t>BUG重启数为浮点数</t>
@@ -155,7 +155,7 @@
     <t>TypeError("错误：X的值必须为整数")</t>
   </si>
   <si>
-    <t>CBRR_E_0003</t>
+    <t>BUG_REOPEN_E_0003</t>
   </si>
   <si>
     <t>BUG重启数为小写英文</t>
@@ -164,7 +164,7 @@
     <t>{"X": "a"}</t>
   </si>
   <si>
-    <t>CBRR_E_0004</t>
+    <t>BUG_REOPEN_E_0004</t>
   </si>
   <si>
     <t>BUG重启数为大写英文</t>
@@ -173,7 +173,7 @@
     <t>{"X": "A"}</t>
   </si>
   <si>
-    <t>CBRR_E_0005</t>
+    <t>BUG_REOPEN_E_0005</t>
   </si>
   <si>
     <t>BUG重启数为汉字</t>
@@ -182,7 +182,7 @@
     <t>{"X": "错误"}</t>
   </si>
   <si>
-    <t>CBRR_E_0006</t>
+    <t>BUG_REOPEN_E_0006</t>
   </si>
   <si>
     <t>BUG重启数为特殊符号</t>
@@ -191,7 +191,7 @@
     <t>{"X": "#$%^&amp;"}</t>
   </si>
   <si>
-    <t>CBRR_E_0007</t>
+    <t>BUG_REOPEN_E_0007</t>
   </si>
   <si>
     <t>BUG重启数为空格</t>
@@ -200,7 +200,7 @@
     <t>{"X": " "}</t>
   </si>
   <si>
-    <t>CBRR_E_0008</t>
+    <t>BUG_REOPEN_E_0008</t>
   </si>
   <si>
     <t>BUG重启数为空字符串</t>
@@ -212,7 +212,7 @@
     <t>ValueError("错误：输入参数X不能为空")</t>
   </si>
   <si>
-    <t>CBRR_E_0009</t>
+    <t>BUG_REOPEN_E_0009</t>
   </si>
   <si>
     <t>BUG重启数为null</t>
@@ -221,7 +221,7 @@
     <t>{"X": null}</t>
   </si>
   <si>
-    <t>CBRR_E_0010</t>
+    <t>BUG_REOPEN_E_0010</t>
   </si>
   <si>
     <t>不传BUG重启数</t>
@@ -1399,12 +1399,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.6634615384615" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7980769230769" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.6346153846154" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.23076923076923" style="1"/>
     <col min="5" max="5" width="21.1538461538462" style="1" customWidth="1"/>
@@ -1792,10 +1792,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"正向,反向"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_program/test_data/calculate_bug_reopen_rating_case.xlsx
+++ b/test_program/test_data/calculate_bug_reopen_rating_case.xlsx
@@ -44,10 +44,10 @@
     <t>test_data</t>
   </si>
   <si>
-    <t>expect_result</t>
-  </si>
-  <si>
-    <t>CBRR_S_0001</t>
+    <t>expect_return_result</t>
+  </si>
+  <si>
+    <t>BUG_REOPEN_S_0001</t>
   </si>
   <si>
     <t>BUG重启数0，期望20分</t>
@@ -62,7 +62,7 @@
     <t>{"X": 0}</t>
   </si>
   <si>
-    <t>CBRR_S_0002</t>
+    <t>BUG_REOPEN_S_0002</t>
   </si>
   <si>
     <t>BUG重启数1，期望15分</t>
@@ -71,7 +71,7 @@
     <t>{"X": 1}</t>
   </si>
   <si>
-    <t>CBRR_S_0003</t>
+    <t>BUG_REOPEN_S_0003</t>
   </si>
   <si>
     <t>BUG重启数2，期望10分</t>
@@ -80,7 +80,7 @@
     <t>{"X": 2}</t>
   </si>
   <si>
-    <t>CBRR_S_0004</t>
+    <t>BUG_REOPEN_S_0004</t>
   </si>
   <si>
     <t>BUG重启数3，期望5分</t>
@@ -89,7 +89,7 @@
     <t>{"X": 3}</t>
   </si>
   <si>
-    <t>CBRR_S_0005</t>
+    <t>BUG_REOPEN_S_0005</t>
   </si>
   <si>
     <t>BUG重启数4，期望1分</t>
@@ -98,7 +98,7 @@
     <t>{"X": 4}</t>
   </si>
   <si>
-    <t>CBRR_S_0006</t>
+    <t>BUG_REOPEN_S_0006</t>
   </si>
   <si>
     <t>BUG重启数5，期望1分</t>
@@ -107,7 +107,7 @@
     <t>{"X": 5}</t>
   </si>
   <si>
-    <t>CBRR_S_0007</t>
+    <t>BUG_REOPEN_S_0007</t>
   </si>
   <si>
     <t>BUG重启数9999，期望1分</t>
@@ -119,7 +119,7 @@
     <t>{"X": 9999}</t>
   </si>
   <si>
-    <t>CBRR_S_0008</t>
+    <t>BUG_REOPEN_S_0008</t>
   </si>
   <si>
     <t>BUG重启数很长，期望1分</t>
@@ -128,7 +128,7 @@
     <t>{"X": 999999999999999999999999999999999999999999999999999999999999999999999999999999999999}</t>
   </si>
   <si>
-    <t>CBRR_E_0001</t>
+    <t>BUG_REOPEN_E_0001</t>
   </si>
   <si>
     <t>BUG重启数-1</t>
@@ -143,7 +143,7 @@
     <t>ValueError("错误：缺陷重新打开次数不应为负数")</t>
   </si>
   <si>
-    <t>CBRR_E_0002</t>
+    <t>BUG_REOPEN_E_0002</t>
   </si>
   <si>
     <t>BUG重启数为浮点数</t>
@@ -152,10 +152,10 @@
     <t>{"X": 0.1}</t>
   </si>
   <si>
-    <t>TypeError("错误：X的值必须为整数")</t>
-  </si>
-  <si>
-    <t>CBRR_E_0003</t>
+    <t>TypeError("错误：X参数必须是int类型")</t>
+  </si>
+  <si>
+    <t>BUG_REOPEN_E_0003</t>
   </si>
   <si>
     <t>BUG重启数为小写英文</t>
@@ -164,7 +164,7 @@
     <t>{"X": "a"}</t>
   </si>
   <si>
-    <t>CBRR_E_0004</t>
+    <t>BUG_REOPEN_E_0004</t>
   </si>
   <si>
     <t>BUG重启数为大写英文</t>
@@ -173,7 +173,7 @@
     <t>{"X": "A"}</t>
   </si>
   <si>
-    <t>CBRR_E_0005</t>
+    <t>BUG_REOPEN_E_0005</t>
   </si>
   <si>
     <t>BUG重启数为汉字</t>
@@ -182,7 +182,7 @@
     <t>{"X": "错误"}</t>
   </si>
   <si>
-    <t>CBRR_E_0006</t>
+    <t>BUG_REOPEN_E_0006</t>
   </si>
   <si>
     <t>BUG重启数为特殊符号</t>
@@ -191,7 +191,7 @@
     <t>{"X": "#$%^&amp;"}</t>
   </si>
   <si>
-    <t>CBRR_E_0007</t>
+    <t>BUG_REOPEN_E_0007</t>
   </si>
   <si>
     <t>BUG重启数为空格</t>
@@ -200,7 +200,7 @@
     <t>{"X": " "}</t>
   </si>
   <si>
-    <t>CBRR_E_0008</t>
+    <t>BUG_REOPEN_E_0008</t>
   </si>
   <si>
     <t>BUG重启数为空字符串</t>
@@ -209,10 +209,10 @@
     <t>{"X": ""}</t>
   </si>
   <si>
-    <t>ValueError("错误：输入参数X不能为空")</t>
-  </si>
-  <si>
-    <t>CBRR_E_0009</t>
+    <t>ValueError("错误：X参数不能为空")</t>
+  </si>
+  <si>
+    <t>BUG_REOPEN_E_0009</t>
   </si>
   <si>
     <t>BUG重启数为null</t>
@@ -221,7 +221,7 @@
     <t>{"X": null}</t>
   </si>
   <si>
-    <t>CBRR_E_0010</t>
+    <t>BUG_REOPEN_E_0010</t>
   </si>
   <si>
     <t>不传BUG重启数</t>
@@ -1398,13 +1398,13 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.6634615384615" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7980769230769" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.6346153846154" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.23076923076923" style="1"/>
     <col min="5" max="5" width="21.1538461538462" style="1" customWidth="1"/>
@@ -1792,10 +1792,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"正向,反向"</formula1>
     </dataValidation>
   </dataValidations>
